--- a/Random_Data_Dumps/FA_PolyCab.xlsx
+++ b/Random_Data_Dumps/FA_PolyCab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s0c0kug/Documents/personnal_repos/SoFTEAM/Random_Data_Dumps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76A629-0C72-0A4B-A99F-7C00527C228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DC9EB-F5ED-7949-8E7E-35ACA087ED2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{4CCFBB44-29B3-1C4F-B906-914A903D7B44}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>Loans and advances as % of net sales</t>
   </si>
   <si>
-    <t>Capital WIP as % of net sales</t>
-  </si>
-  <si>
     <t>Investments as % of gross block</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>Dividend paid as % of net sales</t>
+  </si>
+  <si>
+    <t>Capital WIP as % of Gross Block</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1013,11 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C27" sqref="C27"/>
       <selection pane="topRight" activeCell="C27" sqref="C27"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1038,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
@@ -1051,49 +1051,49 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="T2" s="11"/>
     </row>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="6">
         <f>365*AVERAGE('Balance Sheet'!E16:'Balance Sheet'!F16)/PnL!F5</f>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="23" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F23" s="9">
         <f>'Balance Sheet'!F10/'Balance Sheet'!F5</f>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="25" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="9">
         <f>'Balance Sheet'!F17/'Balance Sheet'!F5</f>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="26"/>
     </row>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="9" t="e">
         <f>PnL!F5/PnL!E5-1</f>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="9" t="e">
         <f>PnL!F7/PnL!E7-1</f>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="9" t="e">
         <f>PnL!F9/PnL!E9-1</f>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="9" t="e">
         <f>PnL!F11/PnL!E11-1</f>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="9" t="e">
         <f>PnL!F13/PnL!E13-1</f>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="9" t="e">
         <f>PnL!F15/PnL!E15-1</f>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" s="9" t="e">
         <f>PnL!F17/PnL!E17-1</f>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" s="6" t="e">
         <f>PnL!E12/PnL!E5</f>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="6" t="e">
         <f>PnL!E14/PnL!E5</f>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47" s="6" t="e">
         <f>PnL!E15/PnL!E5</f>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="6" t="e">
         <f>PnL!E36/PnL!E5</f>
@@ -2535,14 +2535,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA42095-5DE4-3B4F-94D2-468700AC18AD}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C27" sqref="C27"/>
       <selection pane="topRight" activeCell="C27" sqref="C27"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2563,7 +2563,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2582,49 +2582,49 @@
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2661,11 +2661,26 @@
       <c r="N3" s="15">
         <v>12066.01</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="O3" s="6">
+        <f>O4+O14</f>
+        <v>13157.243967446195</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:S3" si="0">P4+P14</f>
+        <v>14116.01723907678</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>16991.018051720643</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>19783.590604761735</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>18151.974340167941</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2701,11 +2716,26 @@
       <c r="N4" s="15">
         <v>3310.55</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="O4" s="6">
+        <f>SUM(O8:O13)</f>
+        <v>3076.5855816158492</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" ref="P4:S4" si="1">SUM(P8:P13)</f>
+        <v>3220.3154818603753</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="1"/>
+        <v>3358.6362410711599</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="1"/>
+        <v>3474.5907932547975</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>3599.863131562533</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
@@ -2851,11 +2881,26 @@
       <c r="N7" s="15">
         <v>0</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="O7" s="6">
+        <f>AVERAGE(J7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" ref="P7:S7" si="2">AVERAGE(K7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
@@ -2892,23 +2937,23 @@
         <v>2261.2199999999998</v>
       </c>
       <c r="O8" s="6">
-        <f>O5-O6</f>
+        <f>O5-O6-O7</f>
         <v>2373.0600299366906</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:S8" si="0">P5-P6</f>
+        <f t="shared" ref="P8:S8" si="3">P5-P6-P7</f>
         <v>2478.37784341311</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2513.9164031801597</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2592.2198584959674</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2613.9587714505387</v>
       </c>
     </row>
@@ -2946,11 +2991,26 @@
       <c r="N9" s="15">
         <v>0</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="O9" s="6">
+        <f>AVERAGE(J9:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" ref="P9:S9" si="4">AVERAGE(K9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
@@ -2987,24 +3047,24 @@
         <v>578.45000000000005</v>
       </c>
       <c r="O10" s="6">
-        <f>Assumptions!O23*PnL!O5</f>
-        <v>2291.8187328220679</v>
+        <f>Assumptions!O23*O5</f>
+        <v>428.55955167915857</v>
       </c>
       <c r="P10" s="6">
-        <f>Assumptions!P23*PnL!P5</f>
-        <v>2786.9772975766723</v>
+        <f>Assumptions!P23*P5</f>
+        <v>461.47243844726535</v>
       </c>
       <c r="Q10" s="6">
-        <f>Assumptions!Q23*PnL!Q5</f>
-        <v>3815.2970583846354</v>
+        <f>Assumptions!Q23*Q5</f>
+        <v>562.84359789100029</v>
       </c>
       <c r="R10" s="6">
-        <f>Assumptions!R23*PnL!R5</f>
-        <v>4479.6411405645968</v>
+        <f>Assumptions!R23*R5</f>
+        <v>588.15544675882995</v>
       </c>
       <c r="S10" s="6">
-        <f>Assumptions!S23*PnL!S5</f>
-        <v>4759.2517784222446</v>
+        <f>Assumptions!S23*S5</f>
+        <v>672.38177451199385</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -3041,11 +3101,26 @@
       <c r="N11" s="15">
         <v>0</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="O11" s="6">
+        <f t="shared" ref="O11:O13" si="5">AVERAGE(J11:N11)</f>
+        <v>9.3119999999999994</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" ref="P11:P13" si="6">AVERAGE(K11:O11)</f>
+        <v>6.0783999999999994</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" ref="Q11:Q13" si="7">AVERAGE(L11:P11)</f>
+        <v>4.9300799999999994</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" ref="R11:R13" si="8">AVERAGE(M11:Q11)</f>
+        <v>4.0640960000000002</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" ref="S11:S13" si="9">AVERAGE(N11:R11)</f>
+        <v>4.8769152</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
@@ -3081,11 +3156,26 @@
       <c r="N12" s="15">
         <v>401.98</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="O12" s="6">
+        <f t="shared" si="5"/>
+        <v>241.19200000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="6"/>
+        <v>245.7004</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="7"/>
+        <v>254.35647999999998</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="8"/>
+        <v>265.82777599999997</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="9"/>
+        <v>281.81133119999993</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
@@ -3121,11 +3211,26 @@
       <c r="N13" s="15">
         <v>34.11</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="O13" s="6">
+        <f t="shared" si="5"/>
+        <v>24.462</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="6"/>
+        <v>28.686399999999999</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="7"/>
+        <v>22.589679999999998</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="8"/>
+        <v>24.323616000000001</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="9"/>
+        <v>26.834339199999999</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -3161,11 +3266,26 @@
       <c r="N14" s="15">
         <v>8713.9599999999991</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="O14" s="6">
+        <f>SUM(O15:O20)</f>
+        <v>10080.658385830346</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" ref="P14:S14" si="10">SUM(P15:P20)</f>
+        <v>10895.701757216406</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="10"/>
+        <v>13632.381810649484</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="10"/>
+        <v>16308.999811506937</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="10"/>
+        <v>14552.111208605409</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
@@ -3277,7 +3397,7 @@
         <v>4213.2999570506208</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
@@ -3332,7 +3452,7 @@
         <v>2119.3193841240272</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -3371,8 +3491,29 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T18" s="6">
+        <f>O21-O3</f>
+        <v>7.9846221682728356</v>
+      </c>
+      <c r="U18" s="6">
+        <f>P21-P3</f>
+        <v>1044.3874996142677</v>
+      </c>
+      <c r="V18" s="6">
+        <f>Q21-Q3</f>
+        <v>664.5081406159261</v>
+      </c>
+      <c r="W18" s="6">
+        <f>R21-R3</f>
+        <v>1284.610724580034</v>
+      </c>
+      <c r="X18" s="6">
+        <f>S21-S3</f>
+        <v>6122.6925756500168</v>
+      </c>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -3406,13 +3547,28 @@
       <c r="N19" s="15">
         <v>75.52</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O19" s="6">
+        <f>AVERAGE(J19:N19)</f>
+        <v>82.22999999999999</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" ref="P19:S19" si="11">AVERAGE(K19:O19)</f>
+        <v>67.605999999999995</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="11"/>
+        <v>71.68519999999998</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="11"/>
+        <v>71.046239999999983</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="11"/>
+        <v>73.617488000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3623,7 @@
         <v>1382.3234129153136</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -3501,13 +3657,28 @@
       <c r="N21" s="15">
         <v>12066.01</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O21" s="6">
+        <f>O22+O26+O32</f>
+        <v>13165.228589614468</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" ref="P21:S21" si="12">P22+P26+P32</f>
+        <v>15160.404738691048</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="12"/>
+        <v>17655.526192336569</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="12"/>
+        <v>21068.201329341769</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" si="12"/>
+        <v>24274.666915817957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
@@ -3546,23 +3717,23 @@
         <v>9623.4336046293047</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" ref="P22:S22" si="1">P23+P25</f>
+        <f t="shared" ref="P22:S22" si="13">P23+P25</f>
         <v>11391.813685037052</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>13538.115773763393</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>16412.619941557728</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>19220.912463164976</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -3601,26 +3772,26 @@
         <v>150.24</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" ref="P23:V23" si="2">O23</f>
+        <f t="shared" ref="P23:S23" si="14">O23</f>
         <v>150.24</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>150.24</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>150.24</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>150.24</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -3670,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -3725,7 +3896,7 @@
         <v>19070.672463164974</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
@@ -3759,13 +3930,28 @@
       <c r="N26" s="15">
         <v>244.78</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O26" s="6">
+        <f>SUM(O27:O31)</f>
+        <v>176.99643594001282</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" ref="P26:S26" si="15">SUM(P27:P31)</f>
+        <v>195.14926286582181</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="15"/>
+        <v>203.67181978014904</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="15"/>
+        <v>224.53730574461031</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="15"/>
+        <v>242.06815191823972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
@@ -3820,7 +4006,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3875,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
@@ -3930,7 +4116,7 @@
         <v>98.593508718239718</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
@@ -3964,12 +4150,28 @@
       <c r="N30" s="15">
         <v>120.55</v>
       </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O30" s="6">
+        <f t="shared" ref="O30:O31" si="16">AVERAGE(J30:N30)</f>
+        <v>61.744000000000007</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" ref="P30:P31" si="17">AVERAGE(K30:O30)</f>
+        <v>64.630800000000008</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" ref="Q30:Q31" si="18">AVERAGE(L30:P30)</f>
+        <v>66.210960000000014</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" ref="R30:R31" si="19">AVERAGE(M30:Q30)</f>
+        <v>70.417152000000002</v>
+      </c>
+      <c r="S30" s="6">
+        <f t="shared" ref="S30:S31" si="20">AVERAGE(N30:R30)</f>
+        <v>76.710582399999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
@@ -4003,12 +4205,28 @@
       <c r="N31" s="15">
         <v>60.12</v>
       </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O31" s="6">
+        <f t="shared" si="16"/>
+        <v>36.457999999999998</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="17"/>
+        <v>38.623599999999996</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="18"/>
+        <v>41.320320000000002</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="19"/>
+        <v>44.298384000000006</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" si="20"/>
+        <v>44.164060800000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
@@ -4047,19 +4265,19 @@
         <v>3364.7985490451492</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:S32" si="3">SUM(P33:P37)</f>
+        <f t="shared" ref="P32:S32" si="21">SUM(P33:P37)</f>
         <v>3573.4417907881739</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>3913.7385987930279</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>4431.0440820394315</v>
       </c>
       <c r="S32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>4811.6863007347411</v>
       </c>
     </row>
@@ -4338,7 +4556,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="O33 O34:O35" formulaRange="1"/>
+    <ignoredError sqref="O33 O34:O35 O19 O9 O7:S7 O30:S31" formulaRange="1"/>
+    <ignoredError sqref="O8:S8 O11:O13" formula="1" formulaRange="1"/>
+    <ignoredError sqref="O10 P10:S10" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4348,7 +4568,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C27" sqref="C27"/>
       <selection pane="topRight" activeCell="C27" sqref="C27"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
@@ -4370,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4378,49 +4598,49 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -5961,7 +6181,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36" s="17">
         <f>F35*F29/100</f>
@@ -6050,10 +6270,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -6061,54 +6281,54 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="12">
         <v>150.15</v>
@@ -6178,7 +6398,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="12">
         <v>240.63</v>
@@ -6213,7 +6433,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="12">
         <v>485.82</v>
@@ -6248,7 +6468,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="12">
         <v>-275.91000000000003</v>
@@ -6283,7 +6503,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="12">
         <v>-59.76</v>
@@ -6318,7 +6538,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="12">
         <v>-172.83</v>
@@ -6353,7 +6573,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="12">
         <v>-202.53</v>
@@ -6388,7 +6608,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="12">
         <v>-203.63</v>
@@ -6423,7 +6643,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="12">
         <v>1.1000000000000001</v>
@@ -6458,7 +6678,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -6493,7 +6713,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -6528,7 +6748,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="12">
         <v>1.49</v>
@@ -6563,7 +6783,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -6598,7 +6818,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -6633,7 +6853,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="12">
         <v>14.59</v>
@@ -6668,7 +6888,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="12">
         <v>0.01</v>
@@ -6703,7 +6923,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="12">
         <v>134.25</v>
@@ -6739,7 +6959,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="12">
         <v>1316.01</v>
@@ -6775,7 +6995,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="12">
         <v>-1181.76</v>
@@ -6810,7 +7030,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="12">
         <v>-103.15</v>
@@ -6845,7 +7065,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="12">
         <v>-16.52</v>
@@ -6880,7 +7100,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="12">
         <v>-8.09</v>
@@ -6915,7 +7135,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="12">
         <v>27.48</v>
@@ -6950,7 +7170,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="12">
         <v>0</v>
@@ -6985,7 +7205,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="12">
         <v>19.39</v>
@@ -7020,7 +7240,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="12">
         <v>202.53</v>
@@ -7055,7 +7275,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="12">
         <v>-52.39</v>
@@ -7130,10 +7350,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -7141,54 +7361,54 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="6">
         <f>E7</f>
@@ -7249,7 +7469,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(0,F7-F4)</f>
@@ -7310,7 +7530,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(0,F4-F7)</f>
@@ -7366,7 +7586,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6">
         <f>'Balance Sheet'!E5</f>
@@ -7431,12 +7651,12 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="6">
         <f>E14</f>
@@ -7497,7 +7717,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="6">
         <f>PnL!F21</f>
@@ -7558,7 +7778,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="6">
         <f>F15-F12-F11</f>
@@ -7614,7 +7834,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6">
         <f>'Balance Sheet'!E6</f>
@@ -7679,7 +7899,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="6">
         <f>'Balance Sheet'!E6</f>
@@ -7818,10 +8038,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -7829,59 +8049,59 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="6">
         <f>E8</f>
@@ -7942,7 +8162,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(0,F8-F5)</f>
@@ -7998,7 +8218,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(0,F5-F8)</f>
@@ -8054,7 +8274,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="6">
         <f>'Balance Sheet'!E27</f>
@@ -8119,12 +8339,12 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="6">
         <f>E14</f>
@@ -8185,7 +8405,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(0,F11-F14)</f>
@@ -8241,7 +8461,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="6">
         <f>MAX(0,F14-F11)</f>
@@ -8297,7 +8517,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6">
         <f>'Balance Sheet'!E28</f>
@@ -8362,7 +8582,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="6">
         <f>AVERAGE(F5,F8,F11,F14)</f>
@@ -8423,7 +8643,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="9">
         <f>PnL!F19/'Debt Schedule'!F16</f>
@@ -8493,11 +8713,11 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C27" sqref="C27"/>
       <selection pane="topRight" activeCell="C27" sqref="C27"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8512,10 +8732,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -8523,49 +8743,49 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -8575,7 +8795,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="6">
         <f>'Balance Sheet'!F23</f>
@@ -8638,7 +8858,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="6">
         <f>E13</f>
@@ -8699,7 +8919,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="6">
         <f>PnL!F29</f>
@@ -8760,7 +8980,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="6">
         <f>F10/100*PnL!F35</f>
@@ -8821,7 +9041,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="6">
         <f>F13-F9-F10+F11</f>
@@ -8882,7 +9102,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="6">
         <f>'Balance Sheet'!E25</f>
